--- a/grading_results.xlsx
+++ b/grading_results.xlsx
@@ -1,34 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UEH\Downloads\17. Đề án tốt nghiệp\rag\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3BF514-6BFC-4FB3-860B-3CD91D009AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Tên môn học</t>
+  </si>
+  <si>
+    <t>Tên file</t>
+  </si>
+  <si>
+    <t>Nội dung bài luận</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Chiến lược thương mại điện tử</t>
+  </si>
+  <si>
+    <t>1312248_Nam_88233020328_-_Hu_nh_Ng_c_Ph_ng_Nhom_01_665446_546763002.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+QUẢN TRỊ DỰ ÁN THƯƠNG MẠI ĐIỆN TỬ
+Đề tài: Khám phá gốm sứ Minh Long
+thông qua trải nghiệm tương tác công nghệ AR
+GVHD: Nguyễn Thành Huy
+LHP: 24C3INF50903101
+Nhóm thực hiện:
+8...</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Điểm thực tế</t>
+  </si>
+  <si>
+    <t>Marketing kỹ thuật số</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phát triển ứng dụng thương mại điện tử</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quản trị dự án thương mại điện tử</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thương mại điện tử</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +105,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,105 +407,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tên môn học</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Tên file</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Nội dung bài luận</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Điểm</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Thương mại điện tử</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NhomJ.docx</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BỘ GIÁO DỤC &amp; ĐÀO TẠO
-ĐẠI HỌC KINH TẾ TPHCM
-KHOA QUẢN TRỊ
-TIỂU LUẬN KẾT THÚC HỌC PHẦN
-MÔN HỌC: THƯƠNG MẠI ĐIỆN TỬ
-Mã lớp HP: 25D1INF50901302 – Nhóm J
-Sinh viên thực hiện: Đinh Văn Đức – 31221022794 (Leader)
-Nguyễn Thị Mỹ Duyên – 31221022909
-Nguyễn Thị Mỹ Hà – 31221026971
-Nguyễn Đức Sơ...</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chiến lược thương mại điện tử</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1312248_Nam_88233020328_-_Hu_nh_Ng_c_Ph_ng_Nhom_01_665446_546763002.pdf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
-TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
-KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
-BÁO CÁO ĐỒ ÁN HỌC PHẦN
-QUẢN TRỊ DỰ ÁN THƯƠNG MẠI ĐIỆN TỬ
-Đề tài: Khám phá gốm sứ Minh Long
-thông qua trải nghiệm tương tác công nghệ AR
-GVHD: Nguyễn Thành Huy
-LHP: 24C3INF50903101
-Nhóm thực hiện:
-8...</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/grading_results.xlsx
+++ b/grading_results.xlsx
@@ -1,92 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UEH\Downloads\17. Đề án tốt nghiệp\rag\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3BF514-6BFC-4FB3-860B-3CD91D009AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Tên môn học</t>
-  </si>
-  <si>
-    <t>Tên file</t>
-  </si>
-  <si>
-    <t>Nội dung bài luận</t>
-  </si>
-  <si>
-    <t>Điểm</t>
-  </si>
-  <si>
-    <t>Chiến lược thương mại điện tử</t>
-  </si>
-  <si>
-    <t>1312248_Nam_88233020328_-_Hu_nh_Ng_c_Ph_ng_Nhom_01_665446_546763002.pdf</t>
-  </si>
-  <si>
-    <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
-TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
-KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
-BÁO CÁO ĐỒ ÁN HỌC PHẦN
-QUẢN TRỊ DỰ ÁN THƯƠNG MẠI ĐIỆN TỬ
-Đề tài: Khám phá gốm sứ Minh Long
-thông qua trải nghiệm tương tác công nghệ AR
-GVHD: Nguyễn Thành Huy
-LHP: 24C3INF50903101
-Nhóm thực hiện:
-8...</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>Điểm thực tế</t>
-  </si>
-  <si>
-    <t>Marketing kỹ thuật số</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phát triển ứng dụng thương mại điện tử</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quản trị dự án thương mại điện tử</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thương mại điện tử</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,22 +45,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,113 +410,1370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col width="39.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="51.5703125" customWidth="1" min="3" max="3"/>
+    <col width="5.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tên môn học</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tên file</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nội dung bài luận</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Điểm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nhom1.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ UEH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+Báo cáo cuối kỳ
+XÂY DỰNG CHIẾN LƯỢC GIÁ CHO SẢN PHẨM
+ROBOT HÚT BỤI ZBOT
+Bộ môn : Chiến lược kinh doanh Thương mại điện tử
+Giảng viên hướng dẫn : TS. Nguyễn Thành Huy
+Mã lớp học phần : 23C1INF50902903...</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nhom5.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+TRƯỜNG KINH DOANH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO CUỐI KỲ MÔN HỌC:
+CHIẾN LƯỢC KINH DOANH THƯƠNG MẠI ĐIỆN TỬ
+Tên đề tài: XÂY DỰNG CHIẾN LƯỢC KINH DOANH THƯƠNG MẠI
+ĐIỆN TỬ CHO CÔNG TY SẢN PHẨM THÚ CƯNG PETTIES THÔNG
+QUA MARKETING VÀ PROMOTION
+Giảng viên hướng dẫn : T...</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nhom6.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN KẾT THÚC HỌC PHẦN
+CHIẾN LƯỢC KINH DOANH THƯƠNG MẠI ĐIỆN TỬ
+Đề tài: Xây dựng chiến lược kinh doanh thương mại điện tử cho
+sản phẩm Yến sào - NCK
+Giảng viên hướng dẫn: TS. Nguyễn Thành Huy
+Mã LHP: 23C1INF50902903
+Nhóm th...</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nhom2.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BỘ MÔN HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+BÁO CÁO ĐỒ ÁN HỌC PHẦN HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+Đề Tài: Phân tích hệ thống thanh toán NAPAS
+Giảng viên hướng dẫn : Nguyễn Thành Huy
+Mã học phần : 24D1INF50903001
+Thực hiện bởi : Nhóm 2
+...</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nhom5.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BỘ MÔN HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+BÁO CÁO DỰ ÁN
+HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+Đề tài: TÌM HIỂU HỆ THỐNG SMART BANKING TRONG THANH TOÁN
+ĐIỆN TỬ TẠI VIỆT NAM
+GVHD: TS. NGUYỄN THÀNH HUY
+Nhóm thực hiện: Nhóm ...</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>nhom2.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+| KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+ĐỒ ÁN CUỐI KỲ
+Chiến Lược Marketing Kỹ Thuật Số Cho
+Sản Phẩm Xốt Ướp Thịt Kiểu Hàn Quốc Cholimex Food
+Học phần: MARKETING KỸ THUẬT SỐ
+Mã lớp học phần: 24C1INF50903201
+Giảng viên hướng dẫn: TS. Nguyễn Th...</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nhom4.pdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+| KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO CUỐI KỲ
+Chiến lượ c Digital Marketing
+Sản phẩm: Máy tính khoa học FLEXIO FX799VN
+Môn học: DIGITAL MARKETING
+Mã lớp họ c phần: 24D1INF50906401
+Giảng viên hướng dẫn: ThS. Nguyễn Thành Huy
+Nhóm si...</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01_nhom1.pdf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO DỰ ÁN NGHIÊN CỨU
+Đề tài
+XÂY DỰNG WEBSITE TMĐT CHO CỬA HÀNG KINH
+DOANH VÒNG Ý - USBIBRACELET
+BỘ MÔN: PHÁT TRIỂN ỨNG DỤNG TMĐT
+Giảng viên: Nguyễn Thành Huy
+Mã lớp học phần: 24C1INF50902701
+Nhóm sinh viên thực...</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01_nhom5.pdf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐH KINH TẾ TP. HCM
+Môn học: Phát triển ứng dụng thương mại điện tử
+Đề tài: WEBSITE CỬA HÀNG LUNA SHOES
+Danh sách nhóm
+1. Lương Thị Mỹ Duyên - 31221024523
+2. Nguyễn Đỗ Quang Hưng - 31221026231
+3. Nguyễn Ngọc Xuân Nam - 31221023784
+4. Võ Thị Mỹ Ngọc - 31221022417
+Giới thiệu chun...</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01_nhom6.pdf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TRƯỜNG ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+-----🙞🙜🕮🙞🙜-----
+BÁO CÁO TIỂU LUẬN
+ĐỀ TÀI: XÂY DỰNG WEBSITE BÁN
+NƯỚC HOA
+Giáo viên hướng dẫn: TS. Nguyễn Thành Huy
+Nhóm thực hiện:
+33211025491 – Đỗ Thị Thanh Hải
+33221025092 - Hoàng Anh Việt
+PHÂN CÔNG CÔNG VIỆC
+HỌ TÊN CÔ...</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01_nhom7.pdf</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ĐỀ TÀI: WEBSITE CỬA HÀNG GẤU BÔNG JELLYCAT
+A. Nhóm thực hiện:
+1. Trần Kim Ngân - 31221026596
+2. Trần Nhựt Hà Anh - 31221023707
+3. Võ Phan Thái Ngân - 31221025581
+4. Lê Thị Thanh Trang - 31221024831
+5. Nguyễn Huỳnh Diệu Huyền - 31221024830
+B. Cáclayout củahệthống
+1.Trangchủ 2.Trang sảnphẩm
+3.Chi tiết...</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Quản trị dự án thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nhom3.pdf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+QUẢN LÝ DỰ ÁN THƯƠNG MẠI ĐIỆN TỬ
+Đề tài: DỰ ÁN XÂY DỰNG WEBSITE DU LỊCH
+TÍCH HỢP ADIVAHA
+GVHD: TS. NGUYỄN THÀNH HUY
+Nhóm thực hiện: Nhom_03
+Tiêu Đình Trung 88224020326
+Trần Đỗ Huy Hoàng 88224020328
+Bùi Thị Uyên Uyên 89233020217
+Trịnh Thanh...</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>02_nhom9.pdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TIỂU LUẬN THUYẾT TRÌNH
+THƯƠNG MẠI ĐIỆN TỬ
+PHÂN TÍCH MÔ HÌNH KINH DOANH CỦA
+SÀN THƯƠNG MẠI ĐIỆN TỬ SHOPEEFOOD
+TÊN GIẢNG VIÊN : TS. Nguyễn Thành Huy
+MÃ HỌC PHẦN : 25D1INF50901302
+NHÓM : I
+TP. Hồ Chí Minh - 2025
+2
+DANH SÁCH THÀNH VIÊN
+STT Tên thành...</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>02_nhom10.pdf</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC &amp; ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TPHCM
+KHOA QUẢN TRỊ
+TIỂU LUẬN KẾT THÚC HỌC PHẦN
+MÔN HỌC: THƯƠNG MẠI ĐIỆN TỬ
+Mã lớp HP: 25D1INF50901302 – Nhóm J
+Sinh viên thực hiện: Đinh Văn Đức – 31221022794 (Leader)
+Nguyễn Thị Mỹ Duyên – 31221022909
+Nguyễn Thị Mỹ Hà – 31221026971
+Nguyễn Đức Sơn – 31221024983...</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>03_nhom1.pdf</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG KINH DOANH
+TIỂU LUẬN KẾT THÚC HỌC PHẦN
+Môn học: Thương mại điện tử
+Giảng viên dạy: GV Nguyễn Thành Huy
+Mã LHP: 24D1INF50901303
+TP.HCM, ngày 11 tháng 05 năm 2024
+1
+SINH VIÊN THAM GIA LÀM TIỂU LUẬN
+Họ và tên MSSV Phần trăm tham gia
+Lưu Trương Minh Đạt 31211022752 100%
+Vũ Hồ Yến Vy 3...</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>03_nhom3.pdf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+--------***--------
+BÁO CÁO CUỐI KỲ
+MÔN HỌC: THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI: TRIỂN KHAI DỰ ÁN HỘP HÁO HỨC TRÊN ODOO
+Giảng viên giảng dạy : TS. Nguyễn Thành Huy
+Mã lớp HP : 24D1INF50901303
+Lớp HP : HPTC.I.EM.1
+Nhóm thực hiện : NH...</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>03_nhom6.pdf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP. HCM
+---o0o---
+KHOA QUẢN TRỊ
+THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI: NỀN TẢNG ĐẶT NƠI LƯU TRÚ TẠI CÁC
+ĐỊA ĐIỂM DU LỊCH Ở VIỆT NAM
+NHÓM: F
+Thành phố Hồ Chí Minh, 2024
+Thông tin các thành viên
+STT Họ và Tên Khóa MSSV
+1 Phạm Nguyễn Mỹ Thi K47 31211024018
+2 Nguyễn Hồ Phương ...</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>04_nhom4.pdf</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TRƯỜNG ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+NGÀNH QUẢN TRỊ
+----------
+THƯƠNG MẠI ĐIỆN TỬ
+DỰ ÁN
+SHADERSHACK - CARD ĐỒ HỌA NVIDIA
+NHÓM: E
+GIẢNG VIÊN: Nguyễn Thành Huy
+LHP: 24D1INF50901304
+MỤC LỤC
+DANH SÁCH THÀNH VIÊN NHÓM E ......................................................................
+SHADERS...</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>04_nhom5.pdf</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG KINH DOANH
+KHOA QUẢN TRỊ
+NHÓM F
+BÁO CÁO CUỐI KỲ
+Giảng viên: TS. Nguyễn Thành Huy
+Mã học phần: 24D1INF50901304
+Môn học: Thương mại điện tử
+TP Hồ Chí Minh, ngày 8 tháng 5 năm 2024
+1
+NHÓM F – DANH SÁCH THÀNH VIÊN
+STT MSSV Họ và tên
+1 31211025333 Trần Ngọc Kim Ngân
+2 31211025163 Nguyễ...</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>04_nhom6.pdf</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TIỂU LUẬN
+Môn học: Thương mại điện tử
+KẾ HOẠCH KINH DOANH THƯƠNG MẠI ĐIỆN TỬ GRABMART
+Giảng viên: Nguyễn Thành Huy
+Mã lớp học phần: 24D1INF50901304
+Sinh viên: Trà Hồng Đoan Nhi - 31211020138 - nhóm trưởng
+Nguyễn Thị Hồng Nhung - 31211027984
+Nguyễn Thị Quỳnh Như - 31211023465
+Nguyễn Nhựt ...</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>nhom2.pdf</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+TIỂU LUẬN CUỐI KỲ
+ĐỀ TÀI: Phân tích chiến lược thương mại điện tử ở sell-side về
+marketing và quảng bá sản phẩm của Cocoon Việt Nam
+GVHD: TS.GVC Nguyễn Thành Huy
+Tên HP : Chiến lược kinh doanh thương mại điện tử (INF509029)...</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>nhom3.pdf</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ UEH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO CUỐI KỲ
+BỘ MÔN: CHIẾN LƯỢC KINH DOANH THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI: XÂY DỰNG CHIẾN LƯỢC TIẾP THỊ VÀ QUẢNG CÁO
+CHO THƯƠNG HIỆU MỸ PHẨM NAM OHMAN
+Giảng viên: TS. Nguyễn Thành Huy
+Mã lớp học phần: 23C1INF50902903
+Nhóm thực hiện: ...</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>nhom4.pdf</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO CUỐI KỲ
+BỘ MÔN: “CHIẾN LƯỢC KINH DOANH THƯƠNG MẠI ĐIỆN TỬ”
+ĐỀ TÀI:
+“NGHIÊN CỨU VÀ PHÂN TÍCH CHIẾN LƯỢC KINH DOANH
+THƯƠNG MẠI ĐIỆN TỬ CỦA CÔNG TY SỮA VINAMILK.”
+Giảng viên hướng dẫn: TS. Nguyễn Thành Huy
+Mã LHP: 23C1...</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>nhom7.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO TIỂU LUẬN CUỐI KÌ
+Bộ môn: Chiến lược kinh doanh Thương mại điện tử
+Đề tài: Xây dựng kho hàng thông minh Vinamilk
+Giảng viên hướng dẫn : TS. Nguyễn Thành Huy
+Mã lớp học phần : 23C1INF50903103
+Nhóm thực hiện : Nhóm 7
+...</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>nhom8.pdf</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BỘ MÔN CÔNG NGHỆ THÔNG TIN
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+CHIẾN LƯỢC THƯƠNG MẠI ĐIỆN TỬ
+Đề tài: VINASTRAWS – CHIẾN LƯỢC KINH DOANH THƯƠNG
+MẠI ĐIỆN TỬ TĂNG CƯỜNG MARKETING VÀ QUẢNG BÁ
+THƯƠNG HIỆU
+GVHD: GVC.TS NGU...</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>nhom9.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP.HCM
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+TIỂU LUẬN CUỐI KỲ
+BỘ MÔN : CHIẾN LƯỢC KINH DOANH
+THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI :
+CHIẾN LƯỢC TIẾP THỊ VÀ QUẢNG BÁ CHO DÒNG SẢN PHẨM
+SERUM DƯỠNG SÁNG VÀ MỜ THÂM NÁM L’ORÉAL
+GLYCOLIC BRIGHT CỦA THƯƠNG HIỆU L’ORÉAL PARIS
+Mã lớ...</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiến lược kinh doanh thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>nhom10.pdf</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+TIỂU LUẬN CUỐI KỲ
+BỘ MÔN: “CHIẾN LƯỢC THƯƠNG MẠI ĐIỆN TỬ”
+ĐỀ TÀI:
+CHIẾN LƯỢC QUẢN LÍ KHO VÀ SẢN PHẨM CHO TỔNG CÔNG TY CỔ PHẦN
+=
+MAY VIỆT TIẾN
+Giảng viên hướng dẫn: TS. Nguyễn Thành Huy
+Nhóm thực hiện: Nhóm 10
+Mã LHP: 23C1IN...</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>nhom1.pdf</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP. HCM
+TRƯỜNG ĐẠI HỌC CÔNG NGHỆ VÀ THIẾT KẾ
+Báo cáo cuối kỳ
+Đề tài:
+PHÂN TÍCH HỆ THỐNG THANH TOÁN
+CỦA VÍ ĐIỆN TỬ VNPAY
+Bộ môn: Hệ thống thanh toán điện tử
+Mã HP : 24D1INF50903001
+GVHD : Nguyễn Thành Huy
+Nhóm sinh viên thực hiện : Nhóm 1
+Danh sách thành viên nh...</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>nhom3.pdf</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+BÁO CÁO CUỐI KỲ
+HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+Nghiên cứu hệ thống thanh toán điện tử PayPal
+Giảng viên: TS. Nguyễn Thành Huy
+Nhóm 3
+Lưu Nguyễn Minh Thư 31211023346
+Phạm Thị Huỳnh Như 31211021160
+Bùi Minh Khôi Nguyên 31211021599
+Nguyễn Đức Tuấn Anh 31211021114
+N...</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>nhom4.pdf</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+DỰ ÁN CUỐI KỲ
+HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+DỰ ÁN PHÁT TRIỂN HỆ THỐNG THANH TOÁN
+VÍ ĐIỆN TỬ TIKIPAY
+GIÁO VIÊN HƯỚNG DẪN: TS. NGUYỄN THÀNH HUY
+NHÓM 4
+1. Sơn Hồng Đức - 31211026003
+2. Lê Thị Minh Thư - 31211027087...</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>nhom6.pdf</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+MÔN: HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+Đề tài: Nghiên cứu hệ thống thanh toán bằng QR Code trên ứng dụng
+Zalo Pay.
+GVHD: TS.GVC Nguyễn Thành Huy
+Mã LHP: 24D1INF50903001
+Nhóm thực hiện: 6
+STT Họ và tên MSSV
+1 N...</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hệ thống thanh toán điện tử</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>nhom7.pdf</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+HỆ THỐNG THANH TOÁN ĐIỆN TỬ
+Đề tài: Tìm hiểu về Hệ thống thanh toán Ví điện tử MoMo
+Mã HP: 24D1INF50903001
+GVHD: TS. Nguyễn Thành Huy
+Thành viên nhóm:
+1. Phạm Minh Anh - 3121...</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>nhom1.pdf</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP.HCM
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ UEH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+TIỂU LUẬN CUỐI KÌ
+HỌC PHẦN: MARKETING KỸ THUẬT SỐ
+Đề tài: CHIẾN LƯỢC DIGITAL MARKETING CHO THƯƠNG HIỆU
+SANEST CỦA CTCP NGK YẾN SÀO KHÁNH HÒA
+Giảng viên hướng dẫn T:s .Nguyễn Thành Huy
+Sinh viên thực hiện : ...</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>nhom3.pdf</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÀI TIỂU LUẬN
+MÔN MARKETING KỸ THUẬT SỐ
+ĐỀ TÀI
+CHIẾN DỊCH MARKETING BUPNON TEA 365
+GIẢNG VIÊN: TS. NGUYỄN THÀNH HUY
+MÃ LỚP HỌC PHẦN: 24C1INF50903201
+LỚP: SÁNG T5
+NHÓM: C
+DANH SÁCH THÀNH VIÊN
+Tên MSSV Đóng góp
+Trần Mỹ Thiên Tân...</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nhom5.pdf</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+ĐỒ ÁN: XÂY DỰNG CHIẾN LƯỢC MARKETING KỸ THUẬT SỐ CHO
+STRONGBOW SPARKLING CIDER
+BỘ MÔN MARKETING KỸ THUẬT SỐ
+GVHD: TS Nguyễn Thành Huy
+Thành viên nhóm E: Nguyễn Lê Trúc Anh
+Đỗ Thanh Hoa
+Nguyễn Huy Hoàng
+Nguyễn Bảo Cát Minh
+L...</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nhom6.pdf</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+MỤC LỤC
+MỤC LỤC ........................................................................................................................... 1
+DANH MỤC CÁC BẢNG ................................................................................................. 4
+DANH MỤC HÌNH ẢNH ........................</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Marketing kỹ thuật số</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nhom7.pdf</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chiến lược Digital Marketing cho sản
+phẩm
+TH true YOGURT TOP CUP
+Môn học: Digital Marketing
+Lớp: 24C1INF50903201
+Giảng viên hướng dẫn: TS. Nguyễn Thành Huy
+Nhóm sinh viên thực hiện: Nhóm H:
+Nguyễn Trần Thế Anh 31221026655
+Phạm Bằng 31221024364
+Nguyễn Huỳnh Hương Giao 31221021656
+Trương Phạm Bảo Khan...</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01_nhom2.pdf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP HỒ CHÍ MINH (UEH)
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+🖎🕮✍
+XÂY DỰNG WEBSITE KINH DOANH TRANG SỨC
+BẠC
+TRỰC TUYẾN
+Giảng viên: TS. Nguyễn Thành Huy
+Mã lớp học phần: 24C1INF50902701
+1. Nguyễn Minh Hiếu (NT) MSSV: 31221024703
+2. Nguyễn Ngọc Nhi MSSV: 3122102...</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01_nhom3.pdf</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN CUỐI KỲ HỌC PHẦN
+PHÁT TRIỂN ỨNG DỤNG THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI: XÂY DỰNG WEBSITE POLIDOLL
+CHUYÊN BÁN MỸ PHẨM LÀM ĐẸP
+Giảng viên : TS. Nguyễn Thành Huy
+Mã lớp học phần : 24C1INF50902701
+Danh...</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Quản trị dự án thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>nhom1.pdf</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+QUẢN TRỊ DỰ ÁN THƯƠNG MẠI ĐIỆN TỬ
+Đề tài: Khám phá gốm sứ Minh Long
+thông qua trải nghiệm tương tác công nghệ AR
+GVHD: Nguyễn Thành Huy
+LHP: 24C3INF50903101
+Nhóm thực hiện:
+8...</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Quản trị dự án thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>nhom2.pdf</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+QUẢN TRỊ DỰ ÁN THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI: XÂY DỰNG HỆ THỐNG ĐẶT HÀNG BẰNG
+QR CODE CHO CHEESE COFFEE
+GIẢNG VIÊN HƯỚNG DẪN : TS. Nguyễn Thành Huy
+LỚP HỌC PHẦN ...</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Quản trị dự án thương mại điện tử</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>nhom4.pdf</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH (UEH)
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+Môn học: Quản Trị Dự Án Thương Mại Điện Tử
+Đề tài: QUẢN TRỊ DỰ ÁN XÂY DỰNG HỆ THỐNG WEBSITE
+BÁN THỰC PHẨM CHO CÔNG TY HEALTHY X3
+GVHD: TS. Nguyễn Thành Huy
+Nhóm thực hiện: _ ...</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/grading_results.xlsx
+++ b/grading_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UEH\Downloads\17. Đề án tốt nghiệp\rag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E891E6-8008-4518-BAC4-9D4AEBBCE038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4177018-00BE-4B6F-971F-58C946FA3AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
   <si>
     <t>Tên môn học</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Điểm</t>
+  </si>
+  <si>
+    <t>Điểm thực tế</t>
   </si>
   <si>
     <t>Chiến lược kinh doanh thương mại điện tử</t>
@@ -638,6 +641,9 @@
     <t>10.0</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>01_nhom3.pdf</t>
   </si>
   <si>
@@ -701,10 +707,295 @@
     <t>9.0</t>
   </si>
   <si>
-    <t>Điểm thực tế</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>02_nhom1.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ TPHCM
+TRƯỜNG KINH DOANH
+KHOA QUẢN TRỊ
+–––o0o–––
+BÀI TIỂU LUẬN CUỐI KỲ
+MÔN THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ BÀI: PHÂN TÍCH MÔ HÌNH KINH DOANH THƯƠNG MẠI ĐIỆN TỬ CỦA
+KALOTOYS - CÔNG TY CỔ PHẦN KALO
+Giảng viên : Nguyễn Thành Huy
+Mã lớp học phần : 25D1INF50901302
+Nhóm thực hiện : Nhóm A
+Thành viên ...</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>02_nhom2.pdf</t>
+  </si>
+  <si>
+    <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ TP HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI
+PHÂN TÍCH MÔ HÌNH THƯƠNG MẠI ĐIỆN TỬ DOANH
+NGHIỆP THẾ GIỚI DI ĐỘNG
+Danh Sách Nhóm:
+1. Lương Phúc Thiên Ân - 31221020084
+2. Trần Hải Dương - 31221021851
+3. Nguyễn Hoàng Huy - 31221021995
+4. Ng...</t>
+  </si>
+  <si>
+    <t>02_nhom3.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+***
+BÁO CÁO CUỐI KỲ
+MÔN THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI
+PHÂN TÍCH HOẠT ĐỘNG THƯƠNG MẠI ĐIỆN TỬ
+CỦA CÔNG TY TNHH VNB SPORTS
+Mã lớp học phần : 25D1INF50901302
+Giảng viên giảng dạy : TS. Nguyễn Thành Huy
+NH...</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>02_nhom4.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC UEH
+TRƯỜNG KINH DOANH
+KHOA QUẢN TRỊ
+BÁO CÁO CUỐI KỲ
+Môn học: Thương mại điện tử
+Chủ đề: PHÂN TÍCH HOẠT ĐỘNG THƯƠNG MẠI ĐIỆN TỬ CỦA
+PNJ
+Giảng viên hướng dẫn: TS. Nguyễn Thành Huy
+Mã lớp học phần: 25D1INF50901302
+Nhóm sinh viên thực hiện: Nguyễn Hoàng Bảo Long -...</t>
+  </si>
+  <si>
+    <t>9.55</t>
+  </si>
+  <si>
+    <t>02_nhom5.pdf</t>
+  </si>
+  <si>
+    <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO
+ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+-------------□□□------------
+KHOA QUẢN TRỊ
+MÔN THƯƠNG MẠI ĐIỆN TỬ
+TIỂU LUẬN CUỐI KỲ
+Giảng viên huớng dẫn : TS. Nguyễn Thành Huy
+Nhóm sinh viên thực hiện : Nhóm E
+Lớp học phần : 25D1INF50901302
+Phòng học – buổi học : N1.301 – ST37
+Thành phố...</t>
+  </si>
+  <si>
+    <t>02_nhom6.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ TP. HCM
+TRƯỜNG KINH DOANH
+KHOA QUẢN TRỊ
+DỰ ÁN KẾT THÚC HỌC PHẦN
+MÔN: Thương mại điện tử
+FPT Retail – FPT Shop
+Giảng viên: Nguyễn Thành Huy
+Mã lớp học phần: 25D1INF50901302
+TP Hồ Chí Minh, ngày 21 tháng 4 năm 2025
+1
+KẾT QUẢ KIỂM TRA ĐẠO VĂN
+2
+MỤC LỤC
+DANH MỤC BẢNG BIỂU VÀ HÌNH ẢNH ......</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>02_nhom7.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ TPHCM
+TRƯỜNG KINH DOANH
+KHOA QUẢN TRỊ
+BÁO CÁO CUỐI KỲ”
+THƯƠNG MẠI ĐIỆN TỬ
+ZUROFIX - ỨNG DỤNG THƯƠNG MẠI ĐIỆN TỬ
+TRONG NGÀNH DỊCH VỤ CỨU HỘ XE
+Thành phố Hồ Chí Minh, ngày 17 tháng 05 năm 2025.
+1
+DANH SÁCH THÀNH VIÊN - NHÓM G
+STT HỌ TÊN MSSV MỨC ĐỘ ĐÓNG GÓP
+1 Nguyễn Phạm Kiều Vy 312210...</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>02_nhom8.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+KHOA QUẢN TRỊ
+~~~~~~*~~~~~~
+DỰ ÁN CUỐI KỲ MÔN THƯƠNG MẠI ĐIỆN TỬ
+PHÂN TÍCH HOẠT ĐỘNG KINH DOANH THƯƠNG
+MẠI ĐIỆN TỬ CỦA CÔNG TY CỔ PHẦN VÀNG BẠC
+ĐÁ QUÝ PHÚ NHUẬN (PNJ)
+Lớp học phần : 25D1INF50901302
+Phòng học – Buổi học : N1-301– Sáng thứ 7
+Giảng viên hướng dẫn :...</t>
+  </si>
+  <si>
+    <t>03_nhom2.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BÀI THI KẾT THÚC HỌC PHẦN
+BỘ MÔN THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI:
+TRIỂN KHAI DỰ ÁN KINH DOANH TẤT (VỚ) H&amp;K TRÊN
+MÔ HÌNH ODOO DỰA THEO 8 LUẬN ĐIỂM KINH DOANH
+Giảng viên: Nguyễn Thành Huy
+Mã lớp học phần: 24D1INF50901303
+Nhóm thực hiện: Nhó...</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>03_nhom4.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+TIỂU LUẬN
+MÔN THƯƠNG MẠI ĐIỆN TỬ
+ĐỀ TÀI
+DỰ ÁN KINH DOANH THƯƠNG MẠI ĐIỆN TỬ
+SẢN PHẨM ĐÈN TRANG TRÍ THƯƠNG HIỆU DEE LIGHT
+NHÓM D
+Giảng viên : Nguyễn Thành Huy
+Mã lớp học phần : 24D1INF50901303
+Sinh viên
+Họ và tên MSSV
+Hoàng ...</t>
+  </si>
+  <si>
+    <t>03_nhom5.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC UEH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CNTT KINH DOANH
+BÁO CÁO CUỐI KỲ- NHÓM E
+ĐỀ TÀI: TRIỂN KHAI DỰ ÁN MÁY ẢNH CANON
+TRÊN ODOO DỰA VÀO MÔ HÌNH KINH DOANH
+8 YẾU TỐ
+Giảng viên : Nguyễn Thành Huy
+Mã lớp học phần : 24D1INF50901303
+Môn học : Thương mại điện tử
+Sinh viên
+Họ và tên MSSV
+Trần Nữ Hoà...</t>
+  </si>
+  <si>
+    <t>04_nhom1.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC KINH TẾ TP. HỒ CHÍ MINH
+TRƯỜNG CÔNG NGHỆ VÀ THIẾT KẾ
+KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH
+BỘ MÔN CÔNG NGHỆ THÔNG TIN
+BÁO CÁO ĐỒ ÁN HỌC PHẦN
+THƯƠNG MẠI ĐIỆN TỬ
+Đề tài: Xây Dựng Website Hỗ Trợ Tìm Nhà Trọ Look4Home
+Thành viên nhóm A: Hồ Cẩm Tú – 31211027621
+Hoàng Trâm Anh – 31211024886
+Lưu Hoàn...</t>
+  </si>
+  <si>
+    <t>04_nhom2.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC UEH
+TRƯỜNG KINH DOANH
+KHOA TOÁN – THỐNG KÊ
+BÁO CÁO TRIỂN KHAI DỰ ÁN
+MÔN HỌC: THƯƠNG MẠI ĐIỆN TỬ
+GIẢNG VIÊN :NGUYỄN THÀNH HUY
+MÃ HỌC PHẦN : 24D1INF50901304
+KHÓA : K47
+Thành phố Hồ Chí Minh, ngày 11 tháng 05 năm 2024
+0
+DANH SÁCH THÀNH VIÊN NHÓM 4
+STT Họ và tên MSSV Mức độ đóng góp
+1 Lê Trung D...</t>
+  </si>
+  <si>
+    <t>04_nhom3.pdf</t>
+  </si>
+  <si>
+    <t>04_nhom7.pdf</t>
+  </si>
+  <si>
+    <t>ĐẠI HỌC UEH
+TRƯỜNG KINH DOANH
+KHOA QUẢN TRỊ
+BÁO CÁO DỰ ÁN CUỐI KÌ
+THƯƠNG MẠI ĐIỆN TỬ
+NHÓM H
+DỰ ÁN ÁO THUN THIẾT KẾ
+CUSTIE
+TP Hồ Chí Minh, ngày 11 tháng 05 năm 2024
+DANH SÁCH THÀNH VIÊN
+STT Họ và tên MSSV Phân công Mức độ đóng góp
+nhiệm vụ
+1 Đậu Anh Tài 31211020637 - Đội ngũ quản 100%
+lý
+2 Đỗ Trần Đo...</t>
+  </si>
+  <si>
+    <t>04_nhom8.pdf</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC KINH TẾ THÀNH PHỐ HỒ CHÍ MINH
+KHOA QUẢN TRỊ
+Bài báo cáo cuối kỳ
+Môn học Thương mại điện tử
+Giảng viên: Nguyễn Thành Huy
+Nhóm I
+Danh sách thành viên:
+Danh sách sinh viên MSSV Mức độ tham gia
+Bùi Công Tiến 31211026146 100%
+Trần Quốc Tịnh 31211022999 100%
+Triệu Quốc Trung 31211020698 100...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+ĐẠI HỌC UEH 
+TRƯỜNG KINH DOANH 
+CNTK - KHOA CÔNG NGHỆ THÔNG TIN KINH DOANH 
+KẾT THÚC MÔN HỌC 
+THƯƠNG MẠI ĐIỆN TỬ 
+DỰ ÁN ODOO – THIẾT KẾ TRANG WEBSITE BÁN HÀNG 
+BÁN SẢN PHẨM DECOR TRANH ẢNH BẰNG ĐÈN LED, ĐÈN NEON 
+KÈM THEO THIẾT KẾ THEO YÊU CẦU 
+Giảng viên: Nguyễn Thành Huy 
+Mã lớp học phầ...</t>
+  </si>
+  <si>
+    <t>7.3</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,21 +1366,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1097,16 +1388,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E3">
         <v>6.5</v>
@@ -1114,16 +1405,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -1131,16 +1422,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>6.5</v>
@@ -1148,16 +1439,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1165,16 +1456,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1182,16 +1473,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>7.5</v>
@@ -1199,16 +1490,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1216,16 +1507,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1233,16 +1524,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1250,16 +1541,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -1267,16 +1558,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1284,16 +1575,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>7.4</v>
@@ -1301,16 +1592,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>7.4</v>
@@ -1318,16 +1609,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>5.9</v>
@@ -1335,16 +1626,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -1352,16 +1643,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>6.5</v>
@@ -1369,16 +1660,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1386,16 +1677,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -1403,16 +1694,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>6.5</v>
@@ -1420,16 +1711,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>7.5</v>
@@ -1437,16 +1728,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>7.5</v>
@@ -1454,16 +1745,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -1471,16 +1762,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>7.5</v>
@@ -1488,16 +1779,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>7.5</v>
@@ -1505,16 +1796,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -1522,16 +1813,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>7.5</v>
@@ -1539,16 +1830,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>7.5</v>
@@ -1556,16 +1847,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>7.5</v>
@@ -1573,13 +1864,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>7.8</v>
@@ -1590,13 +1881,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1">
         <v>8.6999999999999993</v>
@@ -1607,16 +1898,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -1624,16 +1915,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34">
         <v>9.5</v>
@@ -1641,13 +1932,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1">
         <v>7.6</v>
@@ -1658,16 +1949,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -1675,13 +1966,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1">
         <v>8.4</v>
@@ -1692,16 +1983,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
         <v>80</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E38">
         <v>9</v>
@@ -1709,56 +2000,56 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
         <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E39">
         <v>5.8</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E40">
         <v>3.3</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E41">
         <v>9</v>
@@ -1766,16 +2057,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E42">
         <v>9</v>
@@ -1783,19 +2074,291 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E43">
         <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="E45">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="E48">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
